--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1201,83 +1201,83 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_B</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7233,81 +7233,81 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8146,366 +8146,366 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D150" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="G154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G155" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12514,210 +12514,210 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>15</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>0</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>15</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>15</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>2</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>15</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>3</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,59 +1225,59 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>properly</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,57 +7257,57 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8146,366 +8146,366 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>10</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" s="2" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="inlineStr">
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" t="n">
         <v>10</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" s="2" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" t="n">
         <v>10</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" t="n">
         <v>2</v>
       </c>
-      <c r="E151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" s="2" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" t="n">
         <v>10</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" t="n">
         <v>3</v>
       </c>
-      <c r="E152" s="2" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" s="2" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" t="n">
         <v>10</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" t="n">
         <v>4</v>
       </c>
-      <c r="E153" s="2" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" s="2" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" t="n">
         <v>10</v>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" t="n">
         <v>5</v>
       </c>
-      <c r="E154" s="2" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" s="2" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2" t="inlineStr">
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" t="n">
         <v>10</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" s="2" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" t="n">
         <v>6</v>
       </c>
-      <c r="E155" s="2" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12514,210 +12514,210 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>2</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>15</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
